--- a/结果/刘伶俐.xlsx
+++ b/结果/刘伶俐.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
   <si>
     <t>姓名</t>
   </si>
@@ -50,46 +50,46 @@
     <t>单价</t>
   </si>
   <si>
+    <t>0067 第67章 ：亲亲.docx</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>1123</t>
+  </si>
+  <si>
+    <t>50.535</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>0068 第68章 ：他活该.docx</t>
+  </si>
+  <si>
+    <t>1292</t>
+  </si>
+  <si>
+    <t>58.14</t>
+  </si>
+  <si>
+    <t>0069 第69章 ：驯养的挺好.docx</t>
+  </si>
+  <si>
+    <t>1453</t>
+  </si>
+  <si>
+    <t>65.385</t>
+  </si>
+  <si>
     <t>0070 第70章 ：昨天的事，给我忘记.docx</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>1671</t>
   </si>
   <si>
     <t>75.195</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>0069 第69章 ：驯养的挺好.docx</t>
-  </si>
-  <si>
-    <t>1453</t>
-  </si>
-  <si>
-    <t>65.385</t>
-  </si>
-  <si>
-    <t>0068 第68章 ：他活该.docx</t>
-  </si>
-  <si>
-    <t>1292</t>
-  </si>
-  <si>
-    <t>58.14</t>
-  </si>
-  <si>
-    <t>0067 第67章 ：亲亲.docx</t>
-  </si>
-  <si>
-    <t>1123</t>
-  </si>
-  <si>
-    <t>50.535</t>
   </si>
 </sst>
 </file>
@@ -269,119 +269,6 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="C11" t="n">
-        <v>5539.0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>249.255</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" t="s">
-        <v>16</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
